--- a/Comparison of results.xlsx
+++ b/Comparison of results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ethz-my.sharepoint.com/personal/jopeel_ethz_ch/Documents/PhD data/Projects/Premise-Calliope coupling/Adrien tutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{A44F69D8-8D5F-3844-BD70-4E7B79E72BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D27B0FC5-7945-E348-BD6E-4E67350732D1}"/>
+  <xr:revisionPtr revIDLastSave="83" documentId="8_{A44F69D8-8D5F-3844-BD70-4E7B79E72BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F74E47CE-BACB-E44A-916C-8A43867F071C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" xr2:uid="{8F834A0D-1BCF-0848-B9FC-C0189ECAFD31}"/>
+    <workbookView xWindow="-300" yWindow="-22700" windowWidth="27040" windowHeight="16860" xr2:uid="{8F834A0D-1BCF-0848-B9FC-C0189ECAFD31}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$O$4:$O$47</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$P$4:$P$47</definedName>
   </definedNames>
-  <calcPr calcId="181029" calcCompleted="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="85">
   <si>
     <t>Dataset</t>
   </si>
@@ -286,9 +286,6 @@
     <t>0.13792668849210254</t>
   </si>
   <si>
-    <t>SSP2-Base.csv</t>
-  </si>
-  <si>
     <t>SSP2-PkBudg500</t>
   </si>
   <si>
@@ -296,12 +293,21 @@
   </si>
   <si>
     <t>ecoinvent_3.9.1_cutoff_ecoSpold02</t>
+  </si>
+  <si>
+    <t>Change (rel to SSP2-Base)</t>
+  </si>
+  <si>
+    <t>SSP2-Base</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -358,10 +364,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
@@ -417,169 +424,8 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Sheet1!$K$4:$K$21,Sheet1!$K$23:$K$47)</c:f>
-              <c:strCache>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>Aluminium</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Antimony</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Arsenic</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Boron</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Cadmium</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cerium</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Chromium</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Cobalt</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Copper</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Dysprosium</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Europium</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Feldspar</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Fluorspar</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Gadolinium</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Gallium</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Graphite</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Hafnium</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Lanthanum</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Magnesium</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Manganese</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Neodymium</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Nickel</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Niobium</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Palladium</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Phosphorus</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Platinum</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Praseodymium</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Rhodium</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Samarium</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Scandium</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Selenium</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Silicon</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Silver</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Strontium</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Tantalum</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Tellurium</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Terbium</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Tin</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Titanium</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Vanadium</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>Yttrium</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>Zinc</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>Zirconium</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$O$23:$O$66</c:f>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3726-0D4C-B5B9-709170E45B00}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent2"/>
@@ -956,6 +802,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Material intensity change</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CH"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1590,16 +1491,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>781050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446527</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62433</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266806</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>192101</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1924,35 +1825,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF917BF-55B2-DB42-81AD-76439CA97E80}">
-  <dimension ref="A1:Y47"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="119" workbookViewId="0">
+      <selection activeCell="AA28" sqref="AA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="15" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K2" t="s">
+        <v>84</v>
+      </c>
+      <c r="U2" t="s">
         <v>80</v>
       </c>
-      <c r="U2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1984,7 +1885,7 @@
         <v>5</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
         <v>1</v>
@@ -2001,8 +1902,11 @@
       <c r="Y3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2033,7 +1937,7 @@
       <c r="O4">
         <v>67.968394327762994</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="4">
         <f>O4/E4</f>
         <v>0.8873049378350536</v>
       </c>
@@ -2052,8 +1956,12 @@
       <c r="Y4">
         <v>68.162283364384095</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z4" s="3">
+        <f>Y4/O4</f>
+        <v>1.0028526352364029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -2074,7 +1982,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L5" t="s">
@@ -2089,7 +1997,7 @@
       <c r="O5" s="2">
         <v>9.9929333948153105E-5</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="4">
         <f t="shared" ref="P5:P47" si="0">O5/E5</f>
         <v>2.5753834862096281</v>
       </c>
@@ -2112,8 +2020,12 @@
       <c r="Y5" s="2">
         <v>9.9570129889783307E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z5" s="3">
+        <f t="shared" ref="Z5:Z47" si="1">Y5/O5</f>
+        <v>0.99640541926801829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2144,7 +2056,7 @@
       <c r="O6">
         <v>8.3376013217780203E-4</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="4">
         <f t="shared" si="0"/>
         <v>0.9470067645575696</v>
       </c>
@@ -2163,8 +2075,12 @@
       <c r="Y6">
         <v>8.3556534392715599E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0021651452014606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2195,7 +2111,7 @@
       <c r="O7">
         <v>7.1231930060836501E-2</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="4">
         <f t="shared" si="0"/>
         <v>0.90959430057482193</v>
       </c>
@@ -2214,8 +2130,12 @@
       <c r="Y7">
         <v>7.1307185874254095E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z7" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0010564898824632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2246,7 +2166,7 @@
       <c r="O8">
         <v>5.3870349913775399E-4</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="4">
         <f t="shared" si="0"/>
         <v>0.69562884250740531</v>
       </c>
@@ -2265,8 +2185,12 @@
       <c r="Y8">
         <v>5.4172308814776299E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0056052893935943</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -2287,7 +2211,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="L9" t="s">
@@ -2302,7 +2226,7 @@
       <c r="O9">
         <v>7.4102016849982898E-3</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="4">
         <f t="shared" si="0"/>
         <v>0.56612123499839706</v>
       </c>
@@ -2321,8 +2245,12 @@
       <c r="Y9">
         <v>6.6188501412267602E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89320782653276565</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2358,7 +2286,7 @@
       <c r="O10">
         <v>1.2504925129956901</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>0.86391502395873299</v>
       </c>
@@ -2377,8 +2305,12 @@
       <c r="Y10">
         <v>1.3141120842299501</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0508756114675588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2409,7 +2341,7 @@
       <c r="O11">
         <v>4.4135931293409501E-2</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="4">
         <f t="shared" si="0"/>
         <v>1.0686019109391185</v>
       </c>
@@ -2428,8 +2360,12 @@
       <c r="Y11">
         <v>4.4290875630421299E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0035106166896479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2465,7 +2401,7 @@
       <c r="O12">
         <v>28.0204553949483</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>0.94651423775794352</v>
       </c>
@@ -2484,8 +2420,12 @@
       <c r="Y12">
         <v>28.108810091840599</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0031532213037562</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2521,7 +2461,7 @@
       <c r="O13" s="2">
         <v>2.1358650352922201E-6</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="4">
         <f t="shared" si="0"/>
         <v>0.61307496522857341</v>
       </c>
@@ -2544,8 +2484,12 @@
       <c r="Y13" s="2">
         <v>2.1358580882982799E-6</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999674745649869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2581,7 +2525,7 @@
       <c r="O14" s="2">
         <v>3.0313750258927399E-5</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="4">
         <f t="shared" si="0"/>
         <v>0.56708537838866291</v>
       </c>
@@ -2604,8 +2548,12 @@
       <c r="Y14" s="2">
         <v>2.7148341541070299E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89557845232544642</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2641,7 +2589,7 @@
       <c r="O15" s="2">
         <v>6.41975941798012E-6</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="4">
         <f t="shared" si="0"/>
         <v>0.68923424141479495</v>
       </c>
@@ -2664,8 +2612,12 @@
       <c r="Y15" s="2">
         <v>9.1089115685064204E-6</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4188867487767012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2701,7 +2653,7 @@
       <c r="O16">
         <v>3.8490542131377201</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="4">
         <f t="shared" si="0"/>
         <v>0.59815465170220539</v>
       </c>
@@ -2720,8 +2672,12 @@
       <c r="Y16">
         <v>3.87340916731771</v>
       </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0063275165355845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2752,7 +2708,7 @@
       <c r="O17">
         <v>1.02965514802717E-4</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="4">
         <f t="shared" si="0"/>
         <v>0.56579410776060646</v>
       </c>
@@ -2771,8 +2727,12 @@
       <c r="Y17" s="2">
         <v>9.1886595855076997E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89240165536133786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -2803,7 +2763,7 @@
       <c r="O18">
         <v>2.0988835074390599E-2</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="4">
         <f t="shared" si="0"/>
         <v>0.88716387115436457</v>
       </c>
@@ -2822,8 +2782,12 @@
       <c r="Y18">
         <v>2.10491333435412E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0028728735509564</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -2859,7 +2823,7 @@
       <c r="O19">
         <v>2.0590465617204501</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="4">
         <f t="shared" si="0"/>
         <v>0.56786910092912779</v>
       </c>
@@ -2878,8 +2842,12 @@
       <c r="Y19">
         <v>2.0630398331969002</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0019393789099715</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2910,7 +2878,7 @@
       <c r="O20">
         <v>1.50416335273503E-3</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="4">
         <f t="shared" si="0"/>
         <v>0.59119567738820544</v>
       </c>
@@ -2929,8 +2897,12 @@
       <c r="Y20">
         <v>1.4914696887882899E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99156098044560181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2961,7 +2933,7 @@
       <c r="O21">
         <v>3.5730817553748201E-3</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="4">
         <f t="shared" si="0"/>
         <v>0.56812307386402672</v>
       </c>
@@ -2980,8 +2952,12 @@
       <c r="Y21">
         <v>3.20905953364652E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89812093686893157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3002,7 +2978,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="5" t="s">
+      <c r="K22" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L22" t="s">
@@ -3017,8 +2993,8 @@
       <c r="O22">
         <v>6.7091013358276498E-3</v>
       </c>
-      <c r="P22" s="4">
-        <f t="shared" si="0"/>
+      <c r="P22" s="5">
+        <f>O22/E22</f>
         <v>1093.6277483380165</v>
       </c>
       <c r="U22" t="s">
@@ -3036,8 +3012,12 @@
       <c r="Y22">
         <v>6.7409338974068296E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0047446833764737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3073,7 +3053,7 @@
       <c r="O23">
         <v>0.98902033953773705</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="4">
         <f t="shared" si="0"/>
         <v>0.80581924198771815</v>
       </c>
@@ -3092,8 +3072,12 @@
       <c r="Y23">
         <v>0.99559025014863101</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0066428468134081</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
@@ -3129,7 +3113,7 @@
       <c r="O24">
         <v>1.9251450467414299</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="4">
         <f t="shared" si="0"/>
         <v>0.59809375998471448</v>
       </c>
@@ -3148,8 +3132,12 @@
       <c r="Y24">
         <v>1.54877576137379</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80449821897591756</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3180,7 +3168,7 @@
       <c r="O25">
         <v>2.7021407940608201E-3</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="4">
         <f t="shared" si="0"/>
         <v>0.56548599821708756</v>
       </c>
@@ -3199,8 +3187,12 @@
       <c r="Y25">
         <v>2.4093408626810501E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89164149698515682</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -3236,7 +3228,7 @@
       <c r="O26">
         <v>1.90943646524998</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="4">
         <f t="shared" si="0"/>
         <v>0.66350497659005669</v>
       </c>
@@ -3255,8 +3247,12 @@
       <c r="Y26">
         <v>1.6419214182651201</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <f t="shared" si="1"/>
+        <v>0.85989842979675291</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -3287,7 +3283,7 @@
       <c r="O27">
         <v>8.7031675213781101E-4</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="4">
         <f t="shared" si="0"/>
         <v>0.42680886772658277</v>
       </c>
@@ -3306,8 +3302,12 @@
       <c r="Y27">
         <v>7.0005458362447804E-4</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <f t="shared" si="1"/>
+        <v>0.80436758445116929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3343,7 +3343,7 @@
       <c r="O28" s="2">
         <v>4.6586510911397401E-5</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="4">
         <f t="shared" si="0"/>
         <v>1.1417403315784536</v>
       </c>
@@ -3366,8 +3366,12 @@
       <c r="Y28" s="2">
         <v>4.7190871810688E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0129728732087284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3403,7 +3407,7 @@
       <c r="O29">
         <v>0.34184483714452002</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="4">
         <f t="shared" si="0"/>
         <v>0.79843764792889904</v>
       </c>
@@ -3422,8 +3426,12 @@
       <c r="Y29">
         <v>0.35624827444088802</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0421344298093895</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -3459,7 +3467,7 @@
       <c r="O30" s="2">
         <v>3.0558855391939201E-5</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="4">
         <f t="shared" si="0"/>
         <v>1.4974342135196854</v>
       </c>
@@ -3482,8 +3490,12 @@
       <c r="Y30" s="2">
         <v>3.0891220859271301E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0108762407187466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -3514,7 +3526,7 @@
       <c r="O31">
         <v>9.03345232519304E-4</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="4">
         <f t="shared" si="0"/>
         <v>0.56537731580474215</v>
       </c>
@@ -3533,8 +3545,12 @@
       <c r="Y31">
         <v>8.0521769535185205E-4</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <f t="shared" si="1"/>
+        <v>0.891373160963292</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>53</v>
       </c>
@@ -3570,7 +3586,7 @@
       <c r="O32" s="2">
         <v>3.5338436412582698E-6</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="4">
         <f t="shared" si="0"/>
         <v>1.6230892878951519</v>
       </c>
@@ -3593,8 +3609,12 @@
       <c r="Y32" s="2">
         <v>3.58081214480006E-6</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <f t="shared" si="1"/>
+        <v>1.013291053116619</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -3625,7 +3645,7 @@
       <c r="O33">
         <v>1.25669113267464E-4</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="4">
         <f t="shared" si="0"/>
         <v>0.56858353075761758</v>
       </c>
@@ -3644,8 +3664,12 @@
       <c r="Y33">
         <v>1.13007465039226E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <f t="shared" si="1"/>
+        <v>0.89924614012919801</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>56</v>
       </c>
@@ -3681,7 +3705,7 @@
       <c r="O34" s="2">
         <v>1.24874077051899E-5</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="4">
         <f t="shared" si="0"/>
         <v>0.56197927299474393</v>
       </c>
@@ -3704,8 +3728,12 @@
       <c r="Y34" s="2">
         <v>1.1025520440752299E-5</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <f t="shared" si="1"/>
+        <v>0.88293108554227595</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>
@@ -3741,7 +3769,7 @@
       <c r="O35">
         <v>4.9956368755299199E-2</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="4">
         <f t="shared" si="0"/>
         <v>0.94733968925468848</v>
       </c>
@@ -3760,8 +3788,12 @@
       <c r="Y35">
         <v>5.0105150801033699E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0029782398008806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3797,7 +3829,7 @@
       <c r="O36">
         <v>2.1218891993990998</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="4">
         <f t="shared" si="0"/>
         <v>0.94082775324111956</v>
       </c>
@@ -3816,8 +3848,12 @@
       <c r="Y36">
         <v>2.1262378597062499</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z36" s="3">
+        <f t="shared" si="1"/>
+        <v>1.002049428550926</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +3884,7 @@
       <c r="O37">
         <v>4.5707384959464602E-2</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="4">
         <f t="shared" si="0"/>
         <v>0.60788869820666147</v>
       </c>
@@ -3867,8 +3903,12 @@
       <c r="Y37">
         <v>4.5809814792872501E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z37" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0022409908923633</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3899,7 +3939,7 @@
       <c r="O38">
         <v>1.1980438586554701E-3</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="4">
         <f t="shared" si="0"/>
         <v>0.62297341728947508</v>
       </c>
@@ -3918,8 +3958,12 @@
       <c r="Y38">
         <v>1.2050777253674999E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z38" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0058711262206408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3950,7 +3994,7 @@
       <c r="O39">
         <v>4.5029143801975799E-2</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="4">
         <f t="shared" si="0"/>
         <v>1.0010123966966211</v>
       </c>
@@ -3969,8 +4013,12 @@
       <c r="Y39">
         <v>4.5033803768150499E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0001034877810511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4001,7 +4049,7 @@
       <c r="O40">
         <v>3.9573187106095803E-3</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="4">
         <f t="shared" si="0"/>
         <v>0.94727784179581287</v>
       </c>
@@ -4020,8 +4068,12 @@
       <c r="Y40">
         <v>3.9690082073314198E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0029538931727939</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4057,7 +4109,7 @@
       <c r="O41" s="2">
         <v>1.28151900107434E-6</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="4">
         <f t="shared" si="0"/>
         <v>0.61307496523197791</v>
       </c>
@@ -4080,8 +4132,12 @@
       <c r="Y41" s="2">
         <v>1.28151483287822E-6</v>
       </c>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999674745663825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -4117,7 +4173,7 @@
       <c r="O42">
         <v>0.209999555377195</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="4">
         <f t="shared" si="0"/>
         <v>0.95486393428822691</v>
       </c>
@@ -4136,8 +4192,12 @@
       <c r="Y42">
         <v>0.21072432992336301</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0034513146700059</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>70</v>
       </c>
@@ -4173,7 +4233,7 @@
       <c r="O43">
         <v>0.55780188751215698</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="4">
         <f t="shared" si="0"/>
         <v>0.57038787967997751</v>
       </c>
@@ -4192,8 +4252,12 @@
       <c r="Y43">
         <v>0.54448030453829399</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <f t="shared" si="1"/>
+        <v>0.97611771621412335</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -4229,7 +4293,7 @@
       <c r="O44" s="2">
         <v>2.0953022320104201E-5</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="4">
         <f t="shared" si="0"/>
         <v>0.69562884563446326</v>
       </c>
@@ -4252,8 +4316,12 @@
       <c r="Y44" s="2">
         <v>2.1070470074666299E-5</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0056052894311771</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>74</v>
       </c>
@@ -4289,7 +4357,7 @@
       <c r="O45" s="2">
         <v>7.83150519619012E-6</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="4">
         <f t="shared" si="0"/>
         <v>0.61307496521761917</v>
       </c>
@@ -4312,8 +4380,12 @@
       <c r="Y45" s="2">
         <v>7.8314797238782704E-6</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <f t="shared" si="1"/>
+        <v>0.99999674745643252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -4349,7 +4421,7 @@
       <c r="O46">
         <v>4.6737072832527904</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="4">
         <f t="shared" si="0"/>
         <v>0.69718422648147449</v>
       </c>
@@ -4368,8 +4440,12 @@
       <c r="Y46">
         <v>4.7000397676239603</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0056341749226629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -4405,7 +4481,7 @@
       <c r="O47">
         <v>8.1308180285489001E-2</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="4">
         <f t="shared" si="0"/>
         <v>0.58950288138140072</v>
       </c>
@@ -4424,9 +4500,13 @@
       <c r="Y47">
         <v>8.0443357747804395E-2</v>
       </c>
+      <c r="Z47" s="3">
+        <f t="shared" si="1"/>
+        <v>0.98936364662635368</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P4:P21 P23:P47">
+  <conditionalFormatting sqref="P4:P21 P23:P47 Z4:Z47">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
